--- a/실무_엑셀_예제_파일/Chapter04/04-010.xlsx
+++ b/실무_엑셀_예제_파일/Chapter04/04-010.xlsx
@@ -1,38 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23819"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google 드라이브\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B36A2C-2443-421D-A76D-832829A05F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37FAE32-020E-441B-AB74-6A34B57E90A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="G0sFj1PlM7XxzHeotaIvRKflaCKdpfZGwcx8087yUODrlR0LIwhe7sSH+bczNrOM72gLO6P2p6IC1aSgifAbyg==" workbookSaltValue="4kwTElaeE3g6YIXYteOeew==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31339D03-DF74-40E8-8DCA-7AF4716BC00B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{31339D03-DF74-40E8-8DCA-7AF4716BC00B}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="5" r:id="rId1"/>
-    <sheet name="영업1팀" sheetId="1" r:id="rId2"/>
-    <sheet name="영업2팀" sheetId="2" r:id="rId3"/>
-    <sheet name="영업3팀" sheetId="3" r:id="rId4"/>
-    <sheet name="영업4팀" sheetId="4" r:id="rId5"/>
+    <sheet name="영업1팀" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="영업2팀" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="영업3팀" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="영업4팀" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1515,15 +1506,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFFAB17-BD6F-4DD7-8799-3D9936E4F832}">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="5" width="11.796875" customWidth="1"/>
+    <col min="2" max="5" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
@@ -1534,13 +1527,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="11">
         <f>MATCH(C2,영업1팀!$A$1:$D$1,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -1554,7 +1547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="8">
         <f ca="1">SUM(INDIRECT(B4&amp;"!R2C"&amp;$B$3&amp;":R8C"&amp;$B$3,FALSE))</f>
         <v>10385300</v>
@@ -1588,15 +1581,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1F0F26-80F1-4A38-A905-38A5550E3450}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="10.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.4140625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="10.4140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1613,7 +1608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1625,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1642,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1664,7 +1659,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1681,7 +1676,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1698,7 +1693,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1710,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1742,15 +1737,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C471828-5E45-47ED-BDEA-76D7C7F1252B}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="2" max="5" width="10.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.4140625" customWidth="1"/>
+    <col min="2" max="5" width="10.4140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1767,7 +1764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1781,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1835,7 +1832,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +1849,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1898,13 +1895,13 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="2" max="5" width="10.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.4140625" customWidth="1"/>
+    <col min="2" max="5" width="10.4140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1921,7 +1918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +1935,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1972,7 +1969,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1989,7 +1986,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -2052,13 +2049,13 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="2" max="5" width="10.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.4140625" customWidth="1"/>
+    <col min="2" max="5" width="10.4140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -2092,7 +2089,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -2109,7 +2106,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2123,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2140,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -2160,7 +2157,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -2177,7 +2174,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
